--- a/Data/GRIP_Insu_cycles.xlsx
+++ b/Data/GRIP_Insu_cycles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alber\Alberto_Saretto\PHYSICS_Unipd\LCP mod B\Time_series\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24F19D34-D605-420F-88CC-19C3BC71F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3943AD35-B80C-4E69-AA68-86EBB9C739E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9381B069-1065-D24F-9F0F-E515CE5D834C}"/>
   </bookViews>
@@ -25,9 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>Year BP</t>
   </si>
@@ -114,6 +117,18 @@
   <si>
     <t>studspecerror|inso65Nsago149_5|0_41500|Line29|Iter10|Rep50|ErrRun10|nonoise|2023_4_18_20_44</t>
   </si>
+  <si>
+    <t>MCV</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
 </sst>
 </file>
 
@@ -148,18 +163,54 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -168,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,6 +246,33 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -71457,13 +71535,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42113F54-B159-DE4C-8466-7F232CDDF605}">
-  <dimension ref="B3:X39"/>
+  <dimension ref="B3:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="62" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:24" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -72404,25 +72485,25 @@
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B24" s="6">
+      <c r="B24" s="10">
         <v>1586.1</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="10">
         <v>0.69825000000000004</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="11">
         <v>0.56916</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="11">
         <v>3.4451000000000002E-2</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="11">
         <v>6.0510000000000002</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="11">
         <v>6.6407999999999995E-2</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="12">
         <v>1</v>
       </c>
       <c r="J24" s="6">
@@ -72904,7 +72985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="R33" s="8">
         <v>2010.3</v>
       </c>
@@ -72927,7 +73008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="R34" s="8">
         <v>1928.2</v>
       </c>
@@ -72950,7 +73031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="R35" s="8">
         <v>1809.6</v>
       </c>
@@ -72973,7 +73054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="R36" s="8">
         <v>1716.5</v>
       </c>
@@ -72996,30 +73077,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="18:24" x14ac:dyDescent="0.3">
-      <c r="R37" s="8">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="R37" s="15">
         <v>1588.8</v>
       </c>
-      <c r="S37" s="8">
+      <c r="S37" s="15">
         <v>1.6031</v>
       </c>
-      <c r="T37" s="9">
+      <c r="T37" s="16">
         <v>0.53071999999999997</v>
       </c>
-      <c r="U37" s="9">
+      <c r="U37" s="16">
         <v>2.7987999999999999E-2</v>
       </c>
-      <c r="V37" s="7">
+      <c r="V37" s="17">
         <v>5.6340000000000003</v>
       </c>
-      <c r="W37" s="7">
+      <c r="W37" s="17">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="X37" s="1">
+      <c r="X37" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
       <c r="R38" s="8">
         <v>1517</v>
       </c>
@@ -73042,7 +73138,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B39" s="6">
+        <v>70282</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1637.8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
       <c r="R39" s="8">
         <v>1493.8</v>
       </c>
@@ -73063,6 +73168,299 @@
       </c>
       <c r="X39" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B40" s="6">
+        <v>30019</v>
+      </c>
+      <c r="C40" s="6">
+        <v>133.38999999999999</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B41" s="6">
+        <v>16403</v>
+      </c>
+      <c r="C41" s="6">
+        <v>153.72</v>
+      </c>
+      <c r="D41" s="8">
+        <v>18356</v>
+      </c>
+      <c r="E41" s="8">
+        <v>105.26</v>
+      </c>
+      <c r="F41" s="19">
+        <f>D41-B41</f>
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="6">
+        <v>9621.7999999999993</v>
+      </c>
+      <c r="C42" s="6">
+        <v>23.036999999999999</v>
+      </c>
+      <c r="D42" s="8">
+        <v>10309</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1.0434000000000001</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" ref="F42:F44" si="0">D42-B42</f>
+        <v>687.20000000000073</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B43" s="6">
+        <v>6232.6</v>
+      </c>
+      <c r="C43" s="6">
+        <v>19.997</v>
+      </c>
+      <c r="D43" s="8">
+        <v>5917.9</v>
+      </c>
+      <c r="E43" s="8">
+        <v>6.8055000000000003</v>
+      </c>
+      <c r="F43" s="19">
+        <f t="shared" si="0"/>
+        <v>-314.70000000000073</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="6">
+        <v>5762.2</v>
+      </c>
+      <c r="C44" s="6">
+        <v>38.555999999999997</v>
+      </c>
+      <c r="D44" s="8">
+        <v>5639.1</v>
+      </c>
+      <c r="E44" s="8">
+        <v>16.206</v>
+      </c>
+      <c r="F44" s="19">
+        <f t="shared" si="0"/>
+        <v>-123.09999999999945</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="6">
+        <v>4576.5</v>
+      </c>
+      <c r="C45" s="6">
+        <v>6.3448000000000002</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="6">
+        <v>3938</v>
+      </c>
+      <c r="C46" s="6">
+        <v>6.3495999999999997</v>
+      </c>
+      <c r="D46" s="8">
+        <v>4095.9</v>
+      </c>
+      <c r="E46" s="8">
+        <v>10.997</v>
+      </c>
+      <c r="F46" s="19">
+        <f>B46-D46</f>
+        <v>-157.90000000000009</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B47" s="6">
+        <v>3457.2</v>
+      </c>
+      <c r="C47" s="6">
+        <v>5.0761000000000003</v>
+      </c>
+      <c r="D47" s="8">
+        <v>3607.1</v>
+      </c>
+      <c r="E47" s="8">
+        <v>10.86</v>
+      </c>
+      <c r="F47" s="19">
+        <f t="shared" ref="F47:F52" si="1">B47-D47</f>
+        <v>-149.90000000000009</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B48" s="6">
+        <v>2981.4</v>
+      </c>
+      <c r="C48" s="6">
+        <v>4.3345000000000002</v>
+      </c>
+      <c r="D48" s="8">
+        <v>2949.9</v>
+      </c>
+      <c r="E48" s="8">
+        <v>7.5895000000000004E-2</v>
+      </c>
+      <c r="F48" s="19">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="6">
+        <v>2637</v>
+      </c>
+      <c r="C49" s="6">
+        <v>4.9234</v>
+      </c>
+      <c r="D49" s="8">
+        <v>2654.2</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1.3198000000000001</v>
+      </c>
+      <c r="F49" s="19">
+        <f t="shared" si="1"/>
+        <v>-17.199999999999818</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="6">
+        <v>2175.4</v>
+      </c>
+      <c r="C50" s="6">
+        <v>4.7995999999999999</v>
+      </c>
+      <c r="D50" s="8">
+        <v>2225.4</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0.75041000000000002</v>
+      </c>
+      <c r="F50" s="19">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="6">
+        <v>1743</v>
+      </c>
+      <c r="C51" s="6">
+        <v>3.6126999999999998</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1716.5</v>
+      </c>
+      <c r="E51" s="8">
+        <v>1.8771</v>
+      </c>
+      <c r="F51" s="19">
+        <f t="shared" si="1"/>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="14">
+        <v>1586.1</v>
+      </c>
+      <c r="C52" s="14">
+        <v>0.69825000000000004</v>
+      </c>
+      <c r="D52" s="15">
+        <v>1588.8</v>
+      </c>
+      <c r="E52" s="15">
+        <v>1.6031</v>
+      </c>
+      <c r="F52" s="19">
+        <f t="shared" si="1"/>
+        <v>-2.7000000000000455</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="6">
+        <v>1554.3</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1.0891999999999999</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="6">
+        <v>1461.7</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1.8561000000000001</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1493.8</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0.8085</v>
+      </c>
+      <c r="F54" s="20">
+        <f>B54-D54</f>
+        <v>-32.099999999999909</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="6">
+        <v>1370.2</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1.3632</v>
+      </c>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="6">
+        <v>1206.5</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2.008</v>
+      </c>
+      <c r="D56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="6">
+        <v>1179.3</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1.6746000000000001</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="6">
+        <v>995.67</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1.0259</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
